--- a/src/test/resources/customer_data/CustomerTransactions.xlsx
+++ b/src/test/resources/customer_data/CustomerTransactions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Item Code</t>
   </si>
@@ -119,18 +119,9 @@
     <t>Payment amount</t>
   </si>
   <si>
-    <t>I-VS004000163</t>
-  </si>
-  <si>
     <t>Full</t>
   </si>
   <si>
-    <t>I-VS004000165</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -170,13 +161,28 @@
     <t>6567452</t>
   </si>
   <si>
-    <t>05 June 2018</t>
-  </si>
-  <si>
     <t>07 July 2018</t>
   </si>
   <si>
     <t xml:space="preserve">EMIRATES ISLAMIC </t>
+  </si>
+  <si>
+    <t>I-VS004002270</t>
+  </si>
+  <si>
+    <t>I-VS004002271</t>
+  </si>
+  <si>
+    <t>7842.88</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>27 June 2018</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -248,6 +254,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,19 +832,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="B3" s="11">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -848,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,64 +879,64 @@
         <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>77.58</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/customer_data/CustomerTransactions.xlsx
+++ b/src/test/resources/customer_data/CustomerTransactions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Item Code</t>
   </si>
@@ -161,28 +161,31 @@
     <t>6567452</t>
   </si>
   <si>
-    <t>07 July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMIRATES ISLAMIC </t>
   </si>
   <si>
-    <t>I-VS004002270</t>
-  </si>
-  <si>
-    <t>I-VS004002271</t>
-  </si>
-  <si>
-    <t>7842.88</t>
-  </si>
-  <si>
     <t>12000</t>
   </si>
   <si>
     <t>8000</t>
   </si>
   <si>
-    <t>27 June 2018</t>
+    <t>I-VS004002287</t>
+  </si>
+  <si>
+    <t>I-VS004002288</t>
+  </si>
+  <si>
+    <t>7842.08</t>
+  </si>
+  <si>
+    <t>07 August 2018</t>
+  </si>
+  <si>
+    <t>23 July 2018</t>
+  </si>
+  <si>
+    <t>I-VS004002291</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,9 +257,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,10 +811,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,18 +833,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="11">
-        <v>25000</v>
+      <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2">
+        <v>26675</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +866,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,7 +912,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -924,10 +932,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>43</v>
@@ -936,7 +944,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/customer_data/CustomerTransactions.xlsx
+++ b/src/test/resources/customer_data/CustomerTransactions.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="4" r:id="rId1"/>
-    <sheet name="Returns" sheetId="5" r:id="rId2"/>
-    <sheet name="PG1" sheetId="6" r:id="rId3"/>
-    <sheet name="PG2" sheetId="7" r:id="rId4"/>
+    <sheet name="PG1" sheetId="6" r:id="rId2"/>
+    <sheet name="PG2" sheetId="7" r:id="rId3"/>
+    <sheet name="Returns" sheetId="5" r:id="rId4"/>
     <sheet name="Invoices to collect" sheetId="8" r:id="rId5"/>
     <sheet name="Payment methods" sheetId="10" r:id="rId6"/>
   </sheets>
@@ -179,13 +179,13 @@
     <t>7842.08</t>
   </si>
   <si>
-    <t>07 August 2018</t>
-  </si>
-  <si>
     <t>23 July 2018</t>
   </si>
   <si>
     <t>I-VS004002291</t>
+  </si>
+  <si>
+    <t>27 August 2018</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,107 +616,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>4001</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4002</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>4002</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -768,7 +667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -809,11 +708,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>4001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>4002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -849,7 +849,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2">
         <v>26675</v>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/customer_data/CustomerTransactions.xlsx
+++ b/src/test/resources/customer_data/CustomerTransactions.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="4" r:id="rId1"/>
     <sheet name="PG1" sheetId="6" r:id="rId2"/>
     <sheet name="PG2" sheetId="7" r:id="rId3"/>
     <sheet name="Returns" sheetId="5" r:id="rId4"/>
-    <sheet name="Invoices to collect" sheetId="8" r:id="rId5"/>
-    <sheet name="Payment methods" sheetId="10" r:id="rId6"/>
+    <sheet name="Delivery" sheetId="12" r:id="rId5"/>
+    <sheet name="Invoices to collect" sheetId="8" r:id="rId6"/>
+    <sheet name="Payment methods" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
   <si>
     <t>Item Code</t>
   </si>
@@ -125,9 +126,6 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>30 August 2018</t>
-  </si>
-  <si>
     <t>CDC</t>
   </si>
   <si>
@@ -164,9 +162,6 @@
     <t xml:space="preserve">EMIRATES ISLAMIC </t>
   </si>
   <si>
-    <t>12000</t>
-  </si>
-  <si>
     <t>8000</t>
   </si>
   <si>
@@ -179,20 +174,92 @@
     <t>7842.08</t>
   </si>
   <si>
-    <t>23 July 2018</t>
-  </si>
-  <si>
-    <t>I-VS004002291</t>
-  </si>
-  <si>
-    <t>27 August 2018</t>
+    <t>Promoted Discount (Value-Type)</t>
+  </si>
+  <si>
+    <t>23 August 2018</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Order Quantity</t>
+  </si>
+  <si>
+    <t>4023</t>
+  </si>
+  <si>
+    <t>New Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Promoted Discount</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>10-%</t>
+  </si>
+  <si>
+    <t>1.5-ABC</t>
+  </si>
+  <si>
+    <t>Discount-Type</t>
+  </si>
+  <si>
+    <t>5-%</t>
+  </si>
+  <si>
+    <t>Original Net Total</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>New Promotions</t>
+  </si>
+  <si>
+    <t>New Promoted Discount</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>30 November 2018</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>I-VS004002297</t>
+  </si>
+  <si>
+    <t>15 November 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +280,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,6 +330,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,18 +622,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -558,8 +644,20 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -569,8 +667,20 @@
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -580,8 +690,20 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -591,8 +713,20 @@
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -602,7 +736,7 @@
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -713,7 +847,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,10 +945,316 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2">
+        <v>144</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4023</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4023</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2">
+        <v>35931.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +1273,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>31</v>
@@ -841,7 +1281,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>31</v>
@@ -849,10 +1289,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2">
-        <v>26675</v>
+        <v>24675</v>
       </c>
     </row>
   </sheetData>
@@ -861,12 +1301,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,16 +1327,16 @@
         <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,47 +1344,47 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
